--- a/mbs-perturbation/chatty/elm/smote/chatty_elm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/chatty/elm/smote/chatty_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8902439024390244</v>
+        <v>0.5085995085995086</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3173913043478261</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4679487179487179</v>
+        <v>0.6742671009771988</v>
       </c>
       <c r="E2" t="n">
-        <v>0.524712968191229</v>
+        <v>0.5288461538461539</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.4927184466019418</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6601626016260164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5669456066945606</v>
+        <v>0.535377358490566</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6443850267379679</v>
+        <v>0.4900990099009901</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7837398373983739</v>
+        <v>0.6578073089700996</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8115727846302507</v>
+        <v>0.5345622119815668</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5165562913907285</v>
+        <v>0.4889434889434889</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6812227074235807</v>
+        <v>0.6567656765676567</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5199115044247787</v>
+        <v>0.5565326633165829</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4977777777777778</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6646884272997032</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5254237288135593</v>
+        <v>0.5326086956521739</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6097925996690997</v>
+        <v>0.3960720908091859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8634782608695651</v>
+        <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6528532713474084</v>
+        <v>0.5298005376281943</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5897133185508757</v>
+        <v>0.5375854166574087</v>
       </c>
     </row>
   </sheetData>
